--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E7D57-533D-46C4-A9F7-BED03B446796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="10260" yWindow="150" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>System</t>
   </si>
@@ -110,11 +117,38 @@
   <si>
     <t>Fuel system</t>
   </si>
+  <si>
+    <t>Fuel Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Pump </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Regulator </t>
+  </si>
+  <si>
+    <t>Fuel Filter</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b</t>
+  </si>
+  <si>
+    <t>Under the Fuel Tank</t>
+  </si>
+  <si>
+    <t>Above the Engine</t>
+  </si>
+  <si>
+    <t>Left side of the Engine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,27 +563,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -587,83 +621,83 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -682,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E7D57-533D-46C4-A9F7-BED03B446796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA5A9EE-A34F-43B5-8982-E4DCABC714AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="150" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10065" yWindow="60" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>System</t>
   </si>
@@ -64,18 +64,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -143,6 +131,30 @@
   </si>
   <si>
     <t>Left side of the Engine</t>
+  </si>
+  <si>
+    <t>Fuel Pump Collar</t>
+  </si>
+  <si>
+    <t>Pressure Regulator Tab</t>
+  </si>
+  <si>
+    <t>Fuel Pump Tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>Around the Fuel Pump</t>
+  </si>
+  <si>
+    <t>Next to the Pressure Regulator</t>
+  </si>
+  <si>
+    <t>Next to the Fuel Pump</t>
+  </si>
+  <si>
+    <t>EN_05007</t>
   </si>
 </sst>
 </file>
@@ -564,11 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -608,131 +620,150 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA5A9EE-A34F-43B5-8982-E4DCABC714AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CFA67-406D-448E-9714-6C926C6122A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="60" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="75" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>System</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Pressure Regulator Tab</t>
   </si>
   <si>
-    <t>Fuel Pump Tab</t>
-  </si>
-  <si>
     <t xml:space="preserve">m </t>
   </si>
   <si>
@@ -155,6 +152,12 @@
   </si>
   <si>
     <t>EN_05007</t>
+  </si>
+  <si>
+    <t>Fuel Pressure Sensor Adapter</t>
+  </si>
+  <si>
+    <t>At the end of the Fuel Rail</t>
   </si>
 </sst>
 </file>
@@ -578,16 +581,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -700,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -716,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -735,10 +738,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -747,23 +750,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CFA67-406D-448E-9714-6C926C6122A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="75" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7668" yWindow="72" windowWidth="9780" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>System</t>
   </si>
@@ -136,34 +135,25 @@
     <t>Fuel Pump Collar</t>
   </si>
   <si>
-    <t>Pressure Regulator Tab</t>
-  </si>
-  <si>
     <t xml:space="preserve">m </t>
   </si>
   <si>
     <t>Around the Fuel Pump</t>
   </si>
   <si>
-    <t>Next to the Pressure Regulator</t>
-  </si>
-  <si>
     <t>Next to the Fuel Pump</t>
   </si>
   <si>
-    <t>EN_05007</t>
-  </si>
-  <si>
-    <t>Fuel Pressure Sensor Adapter</t>
-  </si>
-  <si>
     <t>At the end of the Fuel Rail</t>
+  </si>
+  <si>
+    <t>Pressure Sensor Adapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,27 +568,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -636,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -655,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -674,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -693,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -703,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -712,17 +702,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -731,14 +721,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>29</v>
@@ -748,25 +738,6 @@
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -81,9 +81,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>EN_A0005</t>
-  </si>
-  <si>
     <t>EN_05001</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Pressure Sensor Adapter</t>
+  </si>
+  <si>
+    <t>EN_A0500</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,128 +616,128 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="72" windowWidth="9780" windowHeight="10800"/>
+    <workbookView xWindow="7668" yWindow="72" windowWidth="9780" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0500" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>System</t>
   </si>
@@ -149,12 +150,51 @@
   <si>
     <t>EN_A0500</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>EN_A0500_P</t>
+  </si>
+  <si>
+    <t>EN - Fuel system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +237,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +279,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,11 +341,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -288,6 +369,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,9 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,4 +837,369 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852CC5B-C546-4CAB-9038-B93ECD82CC6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="72" windowWidth="9780" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="180" windowWidth="9780" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0500" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="134">
   <si>
     <t>System</t>
   </si>
@@ -169,32 +170,302 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
-    <t>Tba</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
-    <t>Fasteners</t>
-  </si>
-  <si>
-    <t>Tooling</t>
-  </si>
-  <si>
     <t>EN_A0500_P</t>
   </si>
   <si>
     <t>EN - Fuel system</t>
+  </si>
+  <si>
+    <t>Fuel Pump</t>
+  </si>
+  <si>
+    <t>Pressure Regulator</t>
+  </si>
+  <si>
+    <t>Fuel injector,Gasoline</t>
+  </si>
+  <si>
+    <t>Hose, Stainless Steel Braided Outer, L.P</t>
+  </si>
+  <si>
+    <t>880mm</t>
+  </si>
+  <si>
+    <t>Conect the different elements where the fuel flows</t>
+  </si>
+  <si>
+    <t>Fitting, Fuel Pressure Gauge</t>
+  </si>
+  <si>
+    <t>On the Fuel Pressure regulator</t>
+  </si>
+  <si>
+    <t>Fitting/L.P./Straight/Aluminum/Anodized</t>
+  </si>
+  <si>
+    <t>Banjo Fitting, Aluminum</t>
+  </si>
+  <si>
+    <t>Adapter/L.P./Union Tee//Aluminum/Anodized</t>
+  </si>
+  <si>
+    <t>Adapter/L.P./Union/FeMale Flare//Aluminum/Anodized</t>
+  </si>
+  <si>
+    <t>Adapter/L.P./Union Reducer//Aluminum/Anodized</t>
+  </si>
+  <si>
+    <t>Seal, O-Ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Crush Washer</t>
+  </si>
+  <si>
+    <t>Dash 6</t>
+  </si>
+  <si>
+    <t>Fuel rail alimentation</t>
+  </si>
+  <si>
+    <t>Banjo fitting on rail</t>
+  </si>
+  <si>
+    <t>Regulator in</t>
+  </si>
+  <si>
+    <t>Tee out, pump inlet</t>
+  </si>
+  <si>
+    <t>Injector seals</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
+  </si>
+  <si>
+    <t>Tabs painting</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Line-on-Line</t>
+  </si>
+  <si>
+    <t>Assemble Injectors seal O Ring</t>
+  </si>
+  <si>
+    <t>Assemble Injectors on Fuel rail</t>
+  </si>
+  <si>
+    <t>Assemble Rail on Admission pipe</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Tighten M6 bolts between Rail and admission pipe</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Reaction tool for M6 nut between Rail and adm. pipe</t>
+  </si>
+  <si>
+    <t>Safety Wire, Install</t>
+  </si>
+  <si>
+    <t>Safety wire installation between fuel rail and intake pipe</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Loose</t>
+  </si>
+  <si>
+    <t>Assemble banjo on fuel rail</t>
+  </si>
+  <si>
+    <t>Bolt, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Nut, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>Washer, Grade 8.8 (SAE 5)</t>
+  </si>
+  <si>
+    <t>M6 bolt for rail on admission pipe</t>
+  </si>
+  <si>
+    <t>M6 nut for rail on admission pipe</t>
+  </si>
+  <si>
+    <t>M6 washer for rail on admission pipe</t>
+  </si>
+  <si>
+    <t>Steel, Mild</t>
+  </si>
+  <si>
+    <t>Tube cut</t>
+  </si>
+  <si>
+    <t>Machining Setup, Install and Remove</t>
+  </si>
+  <si>
+    <t>Threading, External (machining)</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>Main + injectors tube material</t>
+  </si>
+  <si>
+    <t>Fitting tabs material</t>
+  </si>
+  <si>
+    <t>Main + injectors  tube cut</t>
+  </si>
+  <si>
+    <t>Setup and remove for tube machining</t>
+  </si>
+  <si>
+    <t>Tube end threading for Banjo nut</t>
+  </si>
+  <si>
+    <t>Weld main tube + tabs</t>
+  </si>
+  <si>
+    <t>Aluminum - Normal</t>
+  </si>
+  <si>
+    <t>Machining Setup, Install and remove</t>
+  </si>
+  <si>
+    <t>Sheet metal bends</t>
+  </si>
+  <si>
+    <t>Collar material</t>
+  </si>
+  <si>
+    <t>Setup for laser cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling at 90° </t>
+  </si>
+  <si>
+    <t>Aluminium-Cylinder</t>
+  </si>
+  <si>
+    <t>17mm external diameter</t>
+  </si>
+  <si>
+    <t>Drilling-Tapping hole (M8X100)</t>
+  </si>
+  <si>
+    <t>Drilling-Tapping hole ( M12X1.25)</t>
+  </si>
+  <si>
+    <t>Threading to the pressure sensor</t>
+  </si>
+  <si>
+    <t>Threading to the Fuel rail end</t>
+  </si>
+  <si>
+    <t>Cut  a cylinder</t>
+  </si>
+  <si>
+    <t>Cut  a 20 mm  cylinder</t>
+  </si>
+  <si>
+    <t>Return fuel tank, outlet fuel tank, inlet fuel filter</t>
+  </si>
+  <si>
+    <t>Copper to ensure the sealing  ramp-banjo</t>
+  </si>
+  <si>
+    <t>Adaptater for Pump inlet/outlet, regulator threading</t>
+  </si>
+  <si>
+    <t>Pump collar tab on frame,regulator tab only pointed</t>
+  </si>
+  <si>
+    <t>Assemble, 1 kg, Interference</t>
+  </si>
+  <si>
+    <t>Assemble fittings on hose</t>
+  </si>
+  <si>
+    <t>Wrench &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Tighten fittings male part on female part</t>
+  </si>
+  <si>
+    <t>Assemble Pump on Collar</t>
+  </si>
+  <si>
+    <t>Assemble Pump + Collar on Pump tab</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>Tighten M4 bolt between Pump Collar and Tab</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 6.35 mm</t>
+  </si>
+  <si>
+    <t>Reaction tool for M6 nut</t>
+  </si>
+  <si>
+    <t>Reaction tool for M4 nut</t>
+  </si>
+  <si>
+    <t>Assemble Fuel pressure regulator on Tab</t>
+  </si>
+  <si>
+    <t>Tighten M6 bolt Fuel pressure regulator-Tab</t>
+  </si>
+  <si>
+    <t>Tighten Tube nut</t>
+  </si>
+  <si>
+    <t>Tighten fittings + adapters</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>M4 bolt for Pump collar on Tab</t>
+  </si>
+  <si>
+    <t>M4 nut for collar on collar mount</t>
+  </si>
+  <si>
+    <t>M4 washer for collar on collar mount</t>
+  </si>
+  <si>
+    <t>M6 bolt for regulator on tab</t>
+  </si>
+  <si>
+    <t>M6 nut for regulator on tab</t>
+  </si>
+  <si>
+    <t>M6 washer for regulator on tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +524,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -292,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -354,11 +677,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -382,9 +750,59 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{C1A2A0DB-47B0-4E66-A837-1075359B76AF}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{A9F18E8E-07F4-4040-BBB1-DA7C422D9A63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,27 +1079,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -719,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -738,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -757,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -776,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -795,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -814,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -840,25 +1258,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -884,9 +1303,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -898,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -911,292 +1330,1102 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>38</v>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>4</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
+        <v>109</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="24">
+        <v>10</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="24">
+        <v>10</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="8">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="8">
+        <v>4</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="8">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="8">
+        <v>3</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="8">
+        <v>6</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="24">
+        <v>1</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="24">
+        <v>2</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="24">
+        <v>2</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="24">
+        <v>2</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="24">
+        <v>4</v>
+      </c>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="8">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7"/>
+      <c r="C53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="8">
+        <v>2</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852CC5B-C546-4CAB-9038-B93ECD82CC6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5C1F1-6570-4784-8433-4EE1A8E40553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="180" windowWidth="9780" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>System</t>
   </si>
@@ -460,12 +460,21 @@
   <si>
     <t>M6 washer for regulator on tab</t>
   </si>
+  <si>
+    <t>Welds - Welding Fixture</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>Welding fixture from tabs (Fuel pump + Pressure regulator) on frame</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +580,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -726,7 +742,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -797,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1259,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,39 +2101,37 @@
       </c>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
@@ -2125,34 +2145,34 @@
         <v>36</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="13" t="s">
-        <v>89</v>
+      <c r="F46" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="7"/>
+      <c r="B47" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="8">
-        <v>5</v>
-      </c>
+      <c r="F47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="8"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
@@ -2160,17 +2180,17 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
@@ -2178,77 +2198,79 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>19</v>
@@ -2258,151 +2280,147 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="7"/>
+      <c r="B58" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="20" t="s">
-        <v>96</v>
+      <c r="B59" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="8"/>
       <c r="F59" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="8"/>
       <c r="F61" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G61" s="8"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" s="8">
-        <v>2</v>
-      </c>
-      <c r="H62" s="7"/>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G63" s="8">
         <v>1</v>
@@ -2412,7 +2430,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
@@ -2420,12 +2438,48 @@
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="8">
+        <v>2</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="8">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7"/>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5C1F1-6570-4784-8433-4EE1A8E40553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C342A-579D-4A6A-AAD0-7DB1FA5DE339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="435" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
   <si>
     <t>System</t>
   </si>
@@ -179,39 +179,15 @@
     <t>EN - Fuel system</t>
   </si>
   <si>
-    <t>Fuel Pump</t>
-  </si>
-  <si>
     <t>Pressure Regulator</t>
   </si>
   <si>
     <t>Fuel injector,Gasoline</t>
   </si>
   <si>
-    <t>Hose, Stainless Steel Braided Outer, L.P</t>
-  </si>
-  <si>
-    <t>880mm</t>
-  </si>
-  <si>
-    <t>Conect the different elements where the fuel flows</t>
-  </si>
-  <si>
-    <t>Fitting, Fuel Pressure Gauge</t>
-  </si>
-  <si>
     <t>On the Fuel Pressure regulator</t>
   </si>
   <si>
-    <t>Fitting/L.P./Straight/Aluminum/Anodized</t>
-  </si>
-  <si>
-    <t>Banjo Fitting, Aluminum</t>
-  </si>
-  <si>
-    <t>Adapter/L.P./Union Tee//Aluminum/Anodized</t>
-  </si>
-  <si>
     <t>Adapter/L.P./Union/FeMale Flare//Aluminum/Anodized</t>
   </si>
   <si>
@@ -224,9 +200,6 @@
     <t>Crush Washer</t>
   </si>
   <si>
-    <t>Dash 6</t>
-  </si>
-  <si>
     <t>Fuel rail alimentation</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
     <t>Tabs painting</t>
   </si>
   <si>
-    <t>Assemble, 1 kg, Line-on-Line</t>
-  </si>
-  <si>
     <t>Assemble Injectors seal O Ring</t>
   </si>
   <si>
@@ -263,27 +233,9 @@
     <t>Assemble Rail on Admission pipe</t>
   </si>
   <si>
-    <t>Ratchet &lt;= 25.4 mm</t>
-  </si>
-  <si>
-    <t>Tighten M6 bolts between Rail and admission pipe</t>
-  </si>
-  <si>
-    <t>Reaction Tool &lt;= 25.4 mm</t>
-  </si>
-  <si>
-    <t>Reaction tool for M6 nut between Rail and adm. pipe</t>
-  </si>
-  <si>
     <t>Safety Wire, Install</t>
   </si>
   <si>
-    <t>Safety wire installation between fuel rail and intake pipe</t>
-  </si>
-  <si>
-    <t>Assemble, 1 kg, Loose</t>
-  </si>
-  <si>
     <t>Assemble banjo on fuel rail</t>
   </si>
   <si>
@@ -383,27 +335,12 @@
     <t>Cut  a 20 mm  cylinder</t>
   </si>
   <si>
-    <t>Return fuel tank, outlet fuel tank, inlet fuel filter</t>
-  </si>
-  <si>
     <t>Copper to ensure the sealing  ramp-banjo</t>
   </si>
   <si>
-    <t>Adaptater for Pump inlet/outlet, regulator threading</t>
-  </si>
-  <si>
-    <t>Pump collar tab on frame,regulator tab only pointed</t>
-  </si>
-  <si>
-    <t>Assemble, 1 kg, Interference</t>
-  </si>
-  <si>
     <t>Assemble fittings on hose</t>
   </si>
   <si>
-    <t>Wrench &lt;= 25.4 mm</t>
-  </si>
-  <si>
     <t>Tighten fittings male part on female part</t>
   </si>
   <si>
@@ -413,15 +350,9 @@
     <t>Assemble Pump + Collar on Pump tab</t>
   </si>
   <si>
-    <t>Ratchet &lt;= 6.35 mm</t>
-  </si>
-  <si>
     <t>Tighten M4 bolt between Pump Collar and Tab</t>
   </si>
   <si>
-    <t>Reaction Tool &lt;= 6.35 mm</t>
-  </si>
-  <si>
     <t>Reaction tool for M6 nut</t>
   </si>
   <si>
@@ -467,7 +398,85 @@
     <t>Tooling</t>
   </si>
   <si>
-    <t>Welding fixture from tabs (Fuel pump + Pressure regulator) on frame</t>
+    <t>Hose, Stainless Steel Braided Outer, L.P (Dash 6)</t>
+  </si>
+  <si>
+    <t>Fitting, Fuel Pressure Gauge (Dash 6)</t>
+  </si>
+  <si>
+    <t>Fitting/L.P./Straight/Aluminum/Anodized (Dash 6)</t>
+  </si>
+  <si>
+    <t>Banjo Fitting, Aluminum (Dash 6)</t>
+  </si>
+  <si>
+    <t>Adapter/L.P./Union Tee//Aluminum/Anodized (Dash 6)</t>
+  </si>
+  <si>
+    <t>1000mm</t>
+  </si>
+  <si>
+    <t>0.0022m^2</t>
+  </si>
+  <si>
+    <t>2cm</t>
+  </si>
+  <si>
+    <t>1.5cm</t>
+  </si>
+  <si>
+    <t>18cm</t>
+  </si>
+  <si>
+    <t>12cm</t>
+  </si>
+  <si>
+    <t>Welds - Welding Fixure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pump collar tab and regulator tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptater for Pump inlet/outlet, regulator </t>
+  </si>
+  <si>
+    <t>Return and outlet fuel tank, inlet fuel filter</t>
+  </si>
+  <si>
+    <t>Conect different elements where fuel flows</t>
+  </si>
+  <si>
+    <t>Reaction tool for M6 nut Rail-adm. pipe</t>
+  </si>
+  <si>
+    <t>Safety wire installation fuel rail-intake pipe</t>
+  </si>
+  <si>
+    <t>Tabs (Fuel pump + Pressure regulator) on frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrench </t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Ratchet</t>
+  </si>
+  <si>
+    <t>Reaction Tool</t>
+  </si>
+  <si>
+    <t>Tighten M6 bolts Rail-admission pipe</t>
+  </si>
+  <si>
+    <t>4 points</t>
+  </si>
+  <si>
+    <t>17.8cm</t>
+  </si>
+  <si>
+    <t>6 bends</t>
   </si>
 </sst>
 </file>
@@ -742,7 +751,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -773,13 +782,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -792,10 +794,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,8 +815,38 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1283,18 +1311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
@@ -1357,16 +1385,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
         <v>4</v>
@@ -1375,18 +1401,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1395,18 +1419,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G6" s="8">
         <v>2</v>
@@ -1415,42 +1437,34 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>55</v>
+      <c r="E7" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>44</v>
+        <v>128</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1459,20 +1473,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>55</v>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8">
         <v>3</v>
@@ -1481,20 +1491,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
+      <c r="E10" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1503,20 +1509,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
+      <c r="E11" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1525,18 +1527,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -1545,18 +1545,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1565,266 +1563,268 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="24">
-        <v>2</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="19">
         <v>10</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="19">
         <v>10</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="24">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="23"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="24">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="24">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-      <c r="H27" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="F29" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G29" s="8">
         <v>4</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="F30" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -1869,16 +1869,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="F31" s="11" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
@@ -1887,16 +1887,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="F32" s="11" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="G32" s="8">
         <v>3</v>
@@ -1905,16 +1905,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F33" s="8" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="G33" s="8">
         <v>4</v>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="F34" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="F35" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -1959,16 +1959,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F36" s="8" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G36" s="8">
         <v>3</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="F37" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G37" s="8">
         <v>6</v>
@@ -1994,128 +1994,130 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="24">
-        <v>1</v>
-      </c>
-      <c r="H38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1</v>
-      </c>
-      <c r="H39" s="23"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="24">
+      <c r="A40" s="18"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="19">
         <v>2</v>
       </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="28" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="19">
+        <v>4</v>
+      </c>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="24">
-        <v>2</v>
-      </c>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="24">
-        <v>2</v>
-      </c>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="24">
+      <c r="G44" s="19">
         <v>4</v>
       </c>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -2135,52 +2137,52 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="8"/>
+      <c r="E46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="8"/>
+      <c r="E47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="B48" s="13"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="14" t="s">
-        <v>90</v>
+      <c r="E48" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="G48" s="8">
         <v>5</v>
@@ -2189,16 +2191,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="14" t="s">
-        <v>91</v>
+      <c r="E49" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
@@ -2207,71 +2209,77 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="8"/>
+      <c r="E50" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="8"/>
+      <c r="E52" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="23"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
         <v>19</v>
       </c>
@@ -2286,7 +2294,7 @@
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>19</v>
@@ -2333,30 +2341,34 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="8"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="B59" s="15"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="22" t="s">
-        <v>98</v>
+      <c r="D59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G59" s="8">
         <v>1</v>
@@ -2365,28 +2377,36 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="B60" s="16"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="G60" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="B61" s="17"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="8"/>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2399,8 +2419,8 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="25" t="s">
-        <v>57</v>
+      <c r="F62" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6" t="s">
@@ -2409,18 +2429,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-      <c r="B63" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="22" t="s">
-        <v>101</v>
+      <c r="E63" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="G63" s="8">
         <v>1</v>
@@ -2429,16 +2447,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
-      <c r="B64" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="B64" s="17"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="22" t="s">
-        <v>107</v>
+      <c r="E64" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="G64" s="8">
         <v>2</v>
@@ -2447,16 +2465,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
-      <c r="B65" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="B65" s="17"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="22" t="s">
-        <v>104</v>
+      <c r="E65" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="G65" s="8">
         <v>1</v>
@@ -2465,16 +2483,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="B66" s="17"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="22" t="s">
-        <v>105</v>
+      <c r="E66" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="G66" s="8">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C342A-579D-4A6A-AAD0-7DB1FA5DE339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330F7F0-25B7-432D-9E8F-E7B9BA27780A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="435" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -413,9 +413,6 @@
     <t>Adapter/L.P./Union Tee//Aluminum/Anodized (Dash 6)</t>
   </si>
   <si>
-    <t>1000mm</t>
-  </si>
-  <si>
     <t>0.0022m^2</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>Conect different elements where fuel flows</t>
   </si>
   <si>
-    <t>Reaction tool for M6 nut Rail-adm. pipe</t>
-  </si>
-  <si>
     <t>Safety wire installation fuel rail-intake pipe</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
     <t>Reaction Tool</t>
   </si>
   <si>
-    <t>Tighten M6 bolts Rail-admission pipe</t>
-  </si>
-  <si>
     <t>4 points</t>
   </si>
   <si>
@@ -477,13 +468,22 @@
   </si>
   <si>
     <t>6 bends</t>
+  </si>
+  <si>
+    <t>Tighten M4 bolts Rail-admission pipe</t>
+  </si>
+  <si>
+    <t>Reaction tool for M4 nut Rail-adm. pipe</t>
+  </si>
+  <si>
+    <t>1600mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,14 +566,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -779,11 +771,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -800,21 +789,18 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -846,6 +832,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -1311,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,10 +1438,10 @@
         <v>113</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1482,7 +1474,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="8">
         <v>3</v>
@@ -1554,7 +1546,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1575,27 +1567,27 @@
         <v>54</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1611,207 +1603,207 @@
         <v>54</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="18">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="19">
-        <v>10</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="F22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="19">
-        <v>10</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="F24" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18"/>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18"/>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18"/>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
@@ -1820,8 +1812,8 @@
       <c r="D28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>133</v>
+      <c r="E28" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>55</v>
@@ -1838,8 +1830,8 @@
       <c r="D29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>133</v>
+      <c r="E29" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>56</v>
@@ -1856,8 +1848,8 @@
       <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>133</v>
+      <c r="E30" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>57</v>
@@ -1874,11 +1866,11 @@
       <c r="D31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>136</v>
+      <c r="E31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
@@ -1892,11 +1884,11 @@
       <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>129</v>
+      <c r="E32" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="G32" s="8">
         <v>3</v>
@@ -1914,7 +1906,7 @@
         <v>58</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="8">
         <v>4</v>
@@ -1928,8 +1920,8 @@
       <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>133</v>
+      <c r="E34" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>59</v>
@@ -1946,7 +1938,7 @@
       <c r="D35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="35" t="s">
         <v>60</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -1964,7 +1956,7 @@
       <c r="D36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="35" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -1982,7 +1974,7 @@
       <c r="D37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="35" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -1994,130 +1986,130 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="19">
-        <v>1</v>
-      </c>
-      <c r="H38" s="18"/>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="19">
-        <v>1</v>
-      </c>
-      <c r="H39" s="18"/>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>2</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>2</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <v>2</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>4</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="19">
+      <c r="F44" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="18">
         <v>4</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -2137,15 +2129,15 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="23" t="s">
         <v>72</v>
       </c>
       <c r="G46" s="8">
@@ -2155,15 +2147,15 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="24" t="s">
         <v>73</v>
       </c>
       <c r="G47" s="8">
@@ -2173,15 +2165,15 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G48" s="8">
@@ -2191,15 +2183,15 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="25" t="s">
         <v>75</v>
       </c>
       <c r="G49" s="8">
@@ -2209,73 +2201,73 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="13"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="25" t="s">
         <v>77</v>
       </c>
       <c r="G52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -2341,15 +2333,15 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="13"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="27" t="s">
         <v>81</v>
       </c>
       <c r="G58" s="8">
@@ -2359,15 +2351,15 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="28" t="s">
         <v>82</v>
       </c>
       <c r="G59" s="8">
@@ -2377,35 +2369,35 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="33" t="s">
         <v>70</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="17"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="28" t="s">
         <v>83</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -2419,7 +2411,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G62" s="6"/>
@@ -2429,15 +2421,15 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-      <c r="B63" s="17"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G63" s="8">
@@ -2447,15 +2439,15 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
-      <c r="B64" s="17"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="28" t="s">
         <v>91</v>
       </c>
       <c r="G64" s="8">
@@ -2465,15 +2457,15 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
-      <c r="B65" s="17"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="28" t="s">
         <v>88</v>
       </c>
       <c r="G65" s="8">
@@ -2483,15 +2475,15 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="28" t="s">
         <v>89</v>
       </c>
       <c r="G66" s="8">

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A11E2-DFB7-4F86-B60E-E605E02E0A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>System</t>
   </si>
@@ -184,9 +179,6 @@
     <t>Fuel rail alimentation</t>
   </si>
   <si>
-    <t>Banjo fitting on rail</t>
-  </si>
-  <si>
     <t>Regulator in</t>
   </si>
   <si>
@@ -283,21 +275,12 @@
     <t>Return and outlet fuel tank, inlet fuel filter</t>
   </si>
   <si>
-    <t>Conect different elements where fuel flows</t>
-  </si>
-  <si>
     <t>Safety wire installation fuel rail-intake pipe</t>
   </si>
   <si>
     <t>Assemble by hand</t>
   </si>
   <si>
-    <t>17.8cm</t>
-  </si>
-  <si>
-    <t>6 bends</t>
-  </si>
-  <si>
     <t>Tighten M4 bolts Rail-admission pipe</t>
   </si>
   <si>
@@ -316,9 +299,6 @@
     <t>Fuel pump</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
     <t>Seal, O-ring, Copper</t>
   </si>
   <si>
@@ -371,13 +351,32 @@
   </si>
   <si>
     <t>Banjo fitting, straight, Aluminium</t>
+  </si>
+  <si>
+    <t>Conect different elements where fuel flows Dash6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolt, Grade 8.8 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
+    <numFmt numFmtId="197" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="210" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +486,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +609,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -631,13 +725,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="8" fillId="0" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="24" fillId="2" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="24" fillId="0" borderId="8">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="7" borderId="9">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -704,9 +923,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -723,11 +939,82 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="69">
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{A3B9E697-98C4-40BE-9DA9-71BDB7D3ABB7}"/>
+    <cellStyle name="Cost Table Plain" xfId="28" xr:uid="{3135BFAA-A353-4DBA-B4EF-9726396E8426}"/>
+    <cellStyle name="Cost_Green 2" xfId="56" xr:uid="{138888B7-F215-421F-9EA3-A867ED8B5C3D}"/>
+    <cellStyle name="Currency 2" xfId="19" xr:uid="{B8450594-AC12-407D-9B2C-628DF6785272}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="15" xr:uid="{58AE9186-07E3-4A87-BE14-F306E4175C1F}"/>
+    <cellStyle name="Lien hypertexte 2 2" xfId="37" xr:uid="{D0B4C272-817C-4D28-95CC-738F99E773E1}"/>
+    <cellStyle name="Lien hypertexte 2 2 2" xfId="55" xr:uid="{B45B5794-3945-43CF-9AD4-3E1C3E55F187}"/>
+    <cellStyle name="Lien hypertexte 2 3" xfId="39" xr:uid="{E5BA709F-D3CC-4AB6-BE6D-32A31A9CE602}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="34" xr:uid="{4385BF5D-3B00-433C-875E-DE59EE40136B}"/>
+    <cellStyle name="Milliers 2 2" xfId="30" xr:uid="{21DB0686-EA22-40BC-987F-87CA5D9EF527}"/>
+    <cellStyle name="Milliers 2 2 3" xfId="51" xr:uid="{808C926B-6CC9-4FAB-823D-770587B349F7}"/>
+    <cellStyle name="Milliers 2 2 4" xfId="44" xr:uid="{BE4512E8-4C75-4251-89A5-D4A8766667D9}"/>
+    <cellStyle name="Milliers 2 3" xfId="4" xr:uid="{76D695EA-C8F4-4BB1-90A9-11463336DC38}"/>
+    <cellStyle name="Milliers 3" xfId="26" xr:uid="{810AC532-FA9F-4CFC-9549-EB763A3A5084}"/>
+    <cellStyle name="Milliers 3 4" xfId="32" xr:uid="{21DEA01E-8498-4A03-8D82-5DA395ADCD3C}"/>
+    <cellStyle name="Milliers 4" xfId="67" xr:uid="{149E16E0-03DC-4F28-8E82-D48D6FAB6B62}"/>
+    <cellStyle name="Moneda 2" xfId="17" xr:uid="{B0FBF66C-FE43-4410-9743-F843FF193024}"/>
+    <cellStyle name="Monétaire 10" xfId="3" xr:uid="{3CBD80E8-6BDB-452D-A60D-3BC55E7F8C6A}"/>
+    <cellStyle name="Monétaire 10 2" xfId="58" xr:uid="{59E96E33-01AB-42D9-AE24-234CCCC262F5}"/>
+    <cellStyle name="Monétaire 2" xfId="8" xr:uid="{63A6EF89-5790-49EB-94D5-3F780396783A}"/>
+    <cellStyle name="Monétaire 2 3" xfId="6" xr:uid="{B9150123-6446-44A2-9666-BF2BB62A1411}"/>
+    <cellStyle name="Monétaire 2 3 6" xfId="49" xr:uid="{9E97BDB2-70BD-41BC-A001-2A6D0F40714B}"/>
+    <cellStyle name="Monétaire 3" xfId="16" xr:uid="{63A4B7A4-5C7D-4C6E-B3A4-EAADFA36C4F5}"/>
+    <cellStyle name="Monétaire 35" xfId="11" xr:uid="{97176DA7-EEE3-4899-B091-43DDCF6F0509}"/>
+    <cellStyle name="Monétaire 4" xfId="23" xr:uid="{D1A07C7B-6715-47D7-AD41-8409DFE5E224}"/>
+    <cellStyle name="Monétaire 4 2" xfId="60" xr:uid="{FC07B2F6-2571-438B-B2BE-82ABE1A0E1CC}"/>
+    <cellStyle name="Monétaire 4 3" xfId="27" xr:uid="{57A1166C-2781-4210-BD21-DD284E563157}"/>
+    <cellStyle name="Neutral 2" xfId="24" xr:uid="{B701EA14-6EFD-4143-AECA-7305AEB0BBD8}"/>
+    <cellStyle name="Neutre 2" xfId="48" xr:uid="{3D0851EC-A52E-4855-94ED-5EA24704794C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="Normal 10" xfId="22" xr:uid="{6B517A8E-33CA-49A6-9C73-E4A7F2CB3855}"/>
+    <cellStyle name="Normal 11" xfId="43" xr:uid="{6C3BF9BC-3F97-4C7E-9715-79803F983490}"/>
+    <cellStyle name="Normal 12" xfId="41" xr:uid="{6F3AE8FE-7A80-4B01-B92B-D9E27D9A656B}"/>
+    <cellStyle name="Normal 13" xfId="53" xr:uid="{72471178-AC25-4368-BDA2-8AEAF3F23304}"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{89DB6C6D-0FB3-47A1-A280-EE34C1D109DF}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{F1302042-68A0-4BEF-87BB-AF700D031099}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="46" xr:uid="{3BC46EDD-FC0B-4411-BA17-6219289F6E0A}"/>
+    <cellStyle name="Normal 2 2 4 2 3" xfId="29" xr:uid="{E60016AA-2A40-44EE-8BE2-0C4ECEDEFEEA}"/>
+    <cellStyle name="Normal 2 2 4 3 2" xfId="33" xr:uid="{B3651BEE-4B23-4FC9-B0B0-F0069AFB7E2F}"/>
+    <cellStyle name="Normal 2 2 4 4" xfId="5" xr:uid="{77AC8584-5C0C-464E-8DC8-DD74E398ECE4}"/>
+    <cellStyle name="Normal 2 2 4 4 4 2" xfId="42" xr:uid="{D83E37AF-0E20-42FE-BECF-CF43D2A12087}"/>
+    <cellStyle name="Normal 2 3" xfId="21" xr:uid="{15ED7420-8C8C-45F2-91E1-AD85DB93D3A7}"/>
+    <cellStyle name="Normal 2 5" xfId="61" xr:uid="{3468133A-232F-4FCA-98FB-CA671969B1FB}"/>
+    <cellStyle name="Normal 3" xfId="12" xr:uid="{20652538-E1FD-4B6F-ABCD-97FA8F6378DE}"/>
+    <cellStyle name="Normal 3 2 2" xfId="65" xr:uid="{08B97120-AD65-4BAB-AB6C-EB10CE549300}"/>
+    <cellStyle name="Normal 3 4" xfId="59" xr:uid="{1E6465E6-F28B-4D33-BE97-16C39C298853}"/>
+    <cellStyle name="Normal 3 6" xfId="62" xr:uid="{1EB201A9-2EE3-4643-A8C7-42C059F6C4B7}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4 2" xfId="31" xr:uid="{5E11712E-6CF4-44D6-B893-5DD30A43C936}"/>
+    <cellStyle name="Normal 4 2 2" xfId="38" xr:uid="{98181134-AF7B-45E1-B600-C53FA48F5F96}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="40" xr:uid="{9E7A3D11-E2CE-4786-8E0F-DD631527D8D9}"/>
+    <cellStyle name="Normal 4 2 3" xfId="54" xr:uid="{4C2EB71B-78E7-48C8-92AA-A056EBC90849}"/>
+    <cellStyle name="Normal 4 3" xfId="35" xr:uid="{E88D39F8-3C24-4746-98DA-1CE0D4F58C38}"/>
+    <cellStyle name="Normal 4 4" xfId="57" xr:uid="{F27C6055-378C-4FBE-AA93-4BE2177485E4}"/>
+    <cellStyle name="Normal 5 2" xfId="45" xr:uid="{2C121898-D641-4A5B-8E61-DCC92B215113}"/>
+    <cellStyle name="Normal 5 3" xfId="63" xr:uid="{C9DEE2CA-6033-428F-A5E3-31D1DB052CDF}"/>
+    <cellStyle name="Normal 5 4" xfId="64" xr:uid="{D24F3447-F44F-4BDE-83A0-B172B26184D9}"/>
+    <cellStyle name="Normal 6" xfId="9" xr:uid="{AF2CA70E-D238-4162-8AE5-B836ACC22357}"/>
+    <cellStyle name="Normal 7 2" xfId="47" xr:uid="{FCCFDAE4-FDD2-4308-884F-39805762D535}"/>
+    <cellStyle name="Normal 7 3" xfId="66" xr:uid="{666F36B9-B903-45B7-BFB6-4C39DCA95911}"/>
+    <cellStyle name="Normal 7 4" xfId="68" xr:uid="{ED7C8A4B-8CA1-4964-A3B0-17E664E5796C}"/>
+    <cellStyle name="Normal 8 2" xfId="50" xr:uid="{A2718ADB-6B08-45F5-BADE-7AB728A23D28}"/>
+    <cellStyle name="Normal 9 2" xfId="52" xr:uid="{3DD53129-1DB1-4175-A7E1-4282147C5CD5}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Style 1" xfId="10" xr:uid="{0EAAB528-9268-4950-A7BB-E3430CAE8DD1}"/>
+    <cellStyle name="Style 1 2" xfId="18" xr:uid="{5B004D6D-5216-4770-99E3-7267B85BC88E}"/>
+    <cellStyle name="Style 1 3" xfId="25" xr:uid="{1C519825-2F4F-4426-92B7-A89C2204DD1F}"/>
+    <cellStyle name="TableStyleLight1" xfId="7" xr:uid="{9C6B1520-E3EA-40EA-9265-83F9D5CECB15}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="36" xr:uid="{1DE1B017-8375-4869-BB28-CE89284DD1FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1004,27 +1291,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1081,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1100,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1119,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1138,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1157,7 +1444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1183,26 +1470,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -1242,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -1258,7 +1545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1266,35 +1553,38 @@
         <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8">
         <v>2</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="9"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>88</v>
+      <c r="E5" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1302,17 +1592,17 @@
         <v>37</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G6" s="17">
         <v>10</v>
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="19"/>
       <c r="C7" s="16"/>
@@ -1320,17 +1610,17 @@
         <v>37</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="17">
         <v>10</v>
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1338,17 +1628,17 @@
         <v>37</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1356,17 +1646,17 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1374,17 +1664,17 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1392,17 +1682,17 @@
         <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1410,17 +1700,17 @@
         <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1428,17 +1718,17 @@
         <v>37</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1446,17 +1736,17 @@
         <v>37</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1464,17 +1754,17 @@
         <v>37</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1482,17 +1772,17 @@
         <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="7"/>
@@ -1500,17 +1790,17 @@
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="28" t="s">
         <v>80</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="8">
         <v>3</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1518,17 +1808,17 @@
         <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1536,43 +1826,43 @@
         <v>37</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="8">
         <v>3</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>41</v>
@@ -1582,256 +1872,258 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="8">
         <v>2</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="8">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="8">
-        <v>3</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="8">
-        <v>6</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="17">
+        <v>2</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="G28" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="G30" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="17">
-        <v>2</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="17">
-        <v>2</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="17">
-        <v>4</v>
-      </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="26" t="s">
+    <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="27">
+        <v>3</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>19</v>
@@ -1841,13 +2133,13 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>19</v>
@@ -1857,244 +2149,238 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="16"/>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="17">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>54</v>
+      <c r="E42" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="8">
         <v>1</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
+      <c r="E43" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="E44" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="8">
+        <v>6</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G47" s="8">
         <v>1</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="25"/>
+      <c r="E48" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="G48" s="8">
         <v>1</v>
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="25"/>
+      <c r="E49" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="G49" s="8">
         <v>1</v>
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>102</v>
+      <c r="E50" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="G50" s="8">
         <v>1</v>
       </c>
       <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="8">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,25 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A11E2-DFB7-4F86-B60E-E605E02E0A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C30D7-4109-4959-9945-DFCB70C4F16B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9405" yWindow="210" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="EN_A0500" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>System</t>
   </si>
@@ -191,9 +197,6 @@
     <t>Assemble Rail on Admission pipe</t>
   </si>
   <si>
-    <t>Safety Wire, Install</t>
-  </si>
-  <si>
     <t>Assemble banjo on fuel rail</t>
   </si>
   <si>
@@ -275,9 +278,6 @@
     <t>Return and outlet fuel tank, inlet fuel filter</t>
   </si>
   <si>
-    <t>Safety wire installation fuel rail-intake pipe</t>
-  </si>
-  <si>
     <t>Assemble by hand</t>
   </si>
   <si>
@@ -299,9 +299,6 @@
     <t>Fuel pump</t>
   </si>
   <si>
-    <t>Seal, O-ring, Copper</t>
-  </si>
-  <si>
     <t>Hose, Stainless Steel Braided Outer, L.P</t>
   </si>
   <si>
@@ -344,12 +341,6 @@
     <t>Machining setup, install and remove</t>
   </si>
   <si>
-    <t>Machining (CNC)</t>
-  </si>
-  <si>
-    <t>Lathe machining</t>
-  </si>
-  <si>
     <t>Banjo fitting, straight, Aluminium</t>
   </si>
   <si>
@@ -357,6 +348,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bolt, Grade 8.8 </t>
+  </si>
+  <si>
+    <t>Washer,cooper</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Turning machining</t>
+  </si>
+  <si>
+    <t>Milling maching</t>
   </si>
 </sst>
 </file>
@@ -364,17 +367,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="0.0"/>
-    <numFmt numFmtId="197" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="210" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00_);&quot;($&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -775,50 +778,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="8">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="8">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="8">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="24" fillId="2" borderId="8">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="24" fillId="0" borderId="8">
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -828,35 +831,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="17" fillId="7" borderId="9">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="9">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -944,6 +947,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Comma 2" xfId="14" xr:uid="{A3B9E697-98C4-40BE-9DA9-71BDB7D3ABB7}"/>
@@ -1471,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,55 +1556,55 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>82</v>
+      <c r="E4" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
+      <c r="I4" s="27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="27" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>77</v>
       </c>
+      <c r="G5" s="17">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="20" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G6" s="17">
         <v>10</v>
@@ -1604,19 +1613,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>80</v>
+      <c r="E7" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -1628,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>58</v>
@@ -1646,7 +1655,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>59</v>
@@ -1664,7 +1673,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>60</v>
@@ -1682,7 +1691,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>61</v>
@@ -1700,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>62</v>
@@ -1717,8 +1726,8 @@
       <c r="D13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>80</v>
+      <c r="E13" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>63</v>
@@ -1729,22 +1738,22 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1754,49 +1763,49 @@
         <v>37</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1805,16 +1814,16 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1823,13 +1832,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1841,16 +1850,16 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G20" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1859,16 +1868,16 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1877,64 +1886,64 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="36">
+        <v>2</v>
+      </c>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="8">
-        <v>4</v>
-      </c>
-      <c r="H24" s="7"/>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>66</v>
@@ -1949,30 +1958,30 @@
       <c r="B26" s="20"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G26" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G27" s="17">
@@ -1985,10 +1994,10 @@
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>69</v>
@@ -2003,111 +2012,109 @@
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G29" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="17">
-        <v>4</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="22" t="s">
+    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="27">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="8">
         <v>3</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="8">
-        <v>6</v>
-      </c>
-      <c r="H34" s="7"/>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>19</v>
@@ -2117,13 +2124,13 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>19</v>
@@ -2133,89 +2140,91 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1</v>
-      </c>
-      <c r="H40" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
@@ -2223,87 +2232,87 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7"/>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="17">
-        <v>1</v>
-      </c>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="E43" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="8">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="8">
-        <v>6</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G46" s="8">
         <v>1</v>
@@ -2318,7 +2327,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>29</v>
@@ -2336,10 +2345,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2354,17 +2363,17 @@
         <v>37</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -2372,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>29</v>
@@ -2381,6 +2390,42 @@
         <v>1</v>
       </c>
       <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90C30D7-4109-4959-9945-DFCB70C4F16B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B9DB6-1F0D-46EB-AFF5-1319F1F33B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="210" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Assemble Pump + Collar on Pump tab</t>
   </si>
   <si>
-    <t>Tighten M4 bolt between Pump Collar and Tab</t>
-  </si>
-  <si>
     <t>Assemble Fuel pressure regulator on Tab</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>M6 nut for regulator on tab</t>
   </si>
   <si>
-    <t>M6 washer for regulator on tab</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaptater for Pump inlet/outlet, regulator </t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>Banjo fitting, straight, Aluminium</t>
   </si>
   <si>
-    <t>Conect different elements where fuel flows Dash6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bolt, Grade 8.8 </t>
   </si>
   <si>
@@ -359,7 +350,16 @@
     <t>Turning machining</t>
   </si>
   <si>
-    <t>Milling maching</t>
+    <t>Conect elements where fuel flows Dash6</t>
+  </si>
+  <si>
+    <t>Tighten M4 bolt Pump Collar-Tab</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Milling machining</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,17 +1562,17 @@
         <v>36</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="27">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,10 +1583,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="17">
         <v>10</v>
@@ -1601,7 +1601,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>56</v>
@@ -1619,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>57</v>
@@ -1637,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>58</v>
@@ -1655,10 +1655,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
@@ -1691,10 +1691,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
@@ -1709,10 +1709,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
@@ -1727,10 +1727,10 @@
         <v>37</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="17">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>44</v>
@@ -1763,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>45</v>
@@ -1781,10 +1781,10 @@
         <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="8">
         <v>3</v>
@@ -1799,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>46</v>
@@ -1814,13 +1814,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="8">
         <v>3</v>
@@ -1832,10 +1832,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>41</v>
@@ -1850,10 +1850,10 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>42</v>
@@ -1868,10 +1868,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>43</v>
@@ -1886,13 +1886,13 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" s="8">
         <v>4</v>
@@ -1904,10 +1904,10 @@
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>55</v>
@@ -1922,13 +1922,13 @@
       <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
@@ -1940,13 +1940,13 @@
       <c r="B25" s="20"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
@@ -1958,13 +1958,13 @@
       <c r="B26" s="20"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="17">
         <v>2</v>
@@ -1976,13 +1976,13 @@
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="17">
         <v>2</v>
@@ -1994,13 +1994,13 @@
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
@@ -2012,13 +2012,13 @@
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -2046,10 +2046,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>47</v>
@@ -2064,10 +2064,10 @@
       <c r="B32" s="10"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>48</v>
@@ -2082,10 +2082,10 @@
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>49</v>
@@ -2098,7 +2098,7 @@
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
@@ -2167,7 +2167,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>51</v>
@@ -2185,7 +2185,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>24</v>
@@ -2203,7 +2203,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>52</v>
@@ -2239,7 +2239,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>24</v>
@@ -2257,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>53</v>
@@ -2291,7 +2291,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>54</v>
@@ -2309,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>29</v>
@@ -2327,7 +2327,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>29</v>
@@ -2345,10 +2345,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>29</v>
@@ -2381,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" s="25" t="s">
         <v>29</v>
@@ -2399,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>100</v>
@@ -2417,7 +2417,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>29</v>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B9DB6-1F0D-46EB-AFF5-1319F1F33B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DAA89-720F-4F75-876C-E02D86D54E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="0" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>System</t>
   </si>
@@ -347,19 +347,25 @@
     <t>Machining (conventionnal)</t>
   </si>
   <si>
-    <t>Turning machining</t>
-  </si>
-  <si>
     <t>Conect elements where fuel flows Dash6</t>
   </si>
   <si>
     <t>Tighten M4 bolt Pump Collar-Tab</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Milling machining</t>
+    <t>M6 washer for regulator on tab</t>
+  </si>
+  <si>
+    <t>Turning + Milling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning </t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>Milling</t>
   </si>
 </sst>
 </file>
@@ -859,7 +865,7 @@
     <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -952,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1482,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="27">
         <v>1</v>
@@ -1589,9 +1598,12 @@
         <v>75</v>
       </c>
       <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -1607,9 +1619,12 @@
         <v>56</v>
       </c>
       <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -1658,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
@@ -1751,9 +1766,12 @@
         <v>44</v>
       </c>
       <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14">
         <v>4</v>
       </c>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1787,9 +1805,12 @@
         <v>72</v>
       </c>
       <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2018,7 +2039,7 @@
         <v>81</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -2077,7 +2098,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="7"/>
@@ -2095,7 +2116,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>77</v>
@@ -2111,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>40</v>
@@ -2127,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -2143,7 +2164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>24</v>
@@ -2159,7 +2180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
@@ -2177,7 +2198,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="30"/>
       <c r="C39" s="16"/>
@@ -2195,7 +2216,7 @@
       </c>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="13"/>
       <c r="C40" s="7"/>
@@ -2213,7 +2234,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="14"/>
       <c r="C41" s="7"/>
@@ -2231,7 +2252,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="14"/>
       <c r="C42" s="16"/>
@@ -2249,7 +2270,7 @@
       </c>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -2263,11 +2284,14 @@
         <v>53</v>
       </c>
       <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43">
         <v>6</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
         <v>29</v>
@@ -2283,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -2301,7 +2325,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
@@ -2311,15 +2335,15 @@
       <c r="E46" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>29</v>
+      <c r="F46" s="37" t="s">
+        <v>99</v>
       </c>
       <c r="G46" s="8">
         <v>1</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -2329,15 +2353,15 @@
       <c r="E47" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>29</v>
+      <c r="F47" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="G47" s="8">
         <v>1</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
@@ -2347,8 +2371,8 @@
       <c r="E48" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>96</v>
+      <c r="F48" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2365,8 +2389,8 @@
       <c r="E49" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>29</v>
+      <c r="F49" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
@@ -2383,8 +2407,8 @@
       <c r="E50" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>29</v>
+      <c r="F50" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="G50" s="8">
         <v>1</v>
@@ -2401,8 +2425,8 @@
       <c r="E51" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>100</v>
+      <c r="F51" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="G51" s="8">
         <v>1</v>
@@ -2419,8 +2443,8 @@
       <c r="E52" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>29</v>
+      <c r="F52" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="G52" s="8">
         <v>1</v>

--- a/CR - Cost Report/BOM/EN/ENA0500.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batiste\Documents\Universidad\ECL\EPSA\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DAA89-720F-4F75-876C-E02D86D54E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA901BB3-69F9-4DA1-A6E2-9802E392817E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="120" windowWidth="10380" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
   <si>
     <t>System</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>Milling</t>
+  </si>
+  <si>
+    <t>0.002m2</t>
+  </si>
+  <si>
+    <t>0.000000014137m3- 14137.16mm3</t>
+  </si>
+  <si>
+    <t>Cut metallic hosses (grinder)</t>
+  </si>
+  <si>
+    <t>For fuel lines</t>
   </si>
 </sst>
 </file>
@@ -865,7 +877,7 @@
     <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -961,6 +973,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1489,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,39 +1602,39 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+    <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5">
-        <v>10</v>
+      <c r="E5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>76</v>
+      <c r="E6" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
@@ -1628,21 +1646,24 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
+      <c r="E7" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="16"/>
+      <c r="I7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -1655,7 +1676,7 @@
         <v>71</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
@@ -1670,10 +1691,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
@@ -1688,10 +1709,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
@@ -1706,10 +1727,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
@@ -1727,7 +1748,7 @@
         <v>76</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
@@ -1741,36 +1762,36 @@
       <c r="D13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16"/>
       <c r="I14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,71 +1805,74 @@
         <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
       </c>
       <c r="H15" s="7"/>
+      <c r="I15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1856,17 +1880,17 @@
         <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G19" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1874,17 +1898,17 @@
         <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1892,17 +1916,17 @@
         <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1910,53 +1934,53 @@
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>4</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G24" s="36">
         <v>2</v>
       </c>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20"/>
       <c r="C25" s="16"/>
@@ -1964,17 +1988,17 @@
         <v>63</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="20"/>
       <c r="C26" s="16"/>
@@ -1982,35 +2006,35 @@
         <v>63</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="17">
         <v>2</v>
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
@@ -2018,17 +2042,17 @@
         <v>63</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
@@ -2036,67 +2060,67 @@
         <v>63</v>
       </c>
       <c r="E29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>4</v>
       </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="28" t="s">
+    <row r="32" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E32" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G32" s="27">
         <v>3</v>
       </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="8">
-        <v>3</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -2106,36 +2130,38 @@
         <v>63</v>
       </c>
       <c r="E33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>6</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>19</v>
@@ -2145,13 +2171,13 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>19</v>
@@ -2161,91 +2187,92 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E39" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F39" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>24</v>
+        <v>88</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
@@ -2253,95 +2280,98 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="17">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16"/>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="8">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43">
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="8">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="G46" s="8">
         <v>1</v>
       </c>
       <c r="H46" s="7"/>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -2351,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="8">
         <v>1</v>
@@ -2369,10 +2399,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -2387,17 +2417,17 @@
         <v>37</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
@@ -2405,10 +2435,10 @@
         <v>37</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G50" s="8">
         <v>1</v>
@@ -2423,7 +2453,7 @@
         <v>37</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>102</v>
@@ -2441,7 +2471,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F52" s="37" t="s">
         <v>102</v>
@@ -2450,6 +2480,24 @@
         <v>1</v>
       </c>
       <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
